--- a/business/src/main/resources/files/certificate.xlsx
+++ b/business/src/main/resources/files/certificate.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new_post_project\shop\business\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A067F0B2-5F71-475C-BCBD-C4C735D349E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FCB652-AD95-4818-A4D7-28BBB3C8C0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-432" yWindow="3960" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,10 +60,6 @@
   </si>
   <si>
     <t>首次注册时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,18 +87,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,15 +110,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,61 +398,60 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/business/src/main/resources/files/certificate.xlsx
+++ b/business/src/main/resources/files/certificate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new_post_project\shop\business\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FCB652-AD95-4818-A4D7-28BBB3C8C0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0658DD60-8BEB-4539-B3AE-2DD6ACD5C487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>合肥天一生物技术研究所有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产许可证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,14 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -395,24 +397,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -424,39 +426,43 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
